--- a/DSLNG.PEAR/DSLNG.PEAR.Web/Content/UploadedFiles/Economic/Yearly.xlsx
+++ b/DSLNG.PEAR/DSLNG.PEAR.Web/Content/UploadedFiles/Economic/Yearly.xlsx
@@ -437,7 +437,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,16 +525,16 @@
         <v>597700.79299999995</v>
       </c>
       <c r="D2" s="3">
-        <v>11123</v>
+        <v>2</v>
       </c>
       <c r="E2" s="3">
-        <v>123444</v>
+        <v>2</v>
       </c>
       <c r="F2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -549,11 +549,11 @@
       <c r="R2" s="3"/>
       <c r="S2">
         <f>AVERAGE(C2:R2)</f>
-        <v>146454.7586</v>
+        <v>119541.75859999999</v>
       </c>
       <c r="T2">
         <f>SUM(C2:R2)</f>
-        <v>732273.79299999995</v>
+        <v>597708.79299999995</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -567,16 +567,16 @@
         <v>30839117.8797247</v>
       </c>
       <c r="D3" s="3">
-        <v>11222444</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3">
-        <v>998888</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G3" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -591,11 +591,11 @@
       <c r="R3" s="3"/>
       <c r="S3">
         <f>AVERAGE(C3:R3)</f>
-        <v>8612095.1759449393</v>
+        <v>6167825.1759449402</v>
       </c>
       <c r="T3">
         <f>SUM(C3:R3)</f>
-        <v>43060475.879724696</v>
+        <v>30839125.8797247</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -609,16 +609,16 @@
         <v>80.2086122739139</v>
       </c>
       <c r="D4" s="3">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3">
-        <v>78999</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="G4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -633,11 +633,11 @@
       <c r="R4" s="3"/>
       <c r="S4">
         <f>AVERAGE(C4:R4)</f>
-        <v>15834.041722454782</v>
+        <v>17.64172245478278</v>
       </c>
       <c r="T4">
         <f>SUM(C4:R4)</f>
-        <v>79170.208612273913</v>
+        <v>88.2086122739139</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -651,13 +651,13 @@
         <v>77.828093812375201</v>
       </c>
       <c r="D5" s="3">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="E5" s="3">
-        <v>45345</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
@@ -675,11 +675,11 @@
       <c r="R5" s="3"/>
       <c r="S5">
         <f>AVERAGE(C5:R5)</f>
-        <v>9106.9656187624751</v>
+        <v>17.165618762475042</v>
       </c>
       <c r="T5">
         <f>SUM(C5:R5)</f>
-        <v>45534.828093812372</v>
+        <v>85.828093812375201</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -693,16 +693,16 @@
         <v>62.034659040128702</v>
       </c>
       <c r="D6" s="3">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="E6" s="3">
-        <v>346347</v>
+        <v>2</v>
       </c>
       <c r="F6" s="3">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -717,11 +717,11 @@
       <c r="R6" s="3"/>
       <c r="S6">
         <f t="shared" ref="S6" si="0">AVERAGE(C6:R6)</f>
-        <v>69308.406931808015</v>
+        <v>14.00693180802574</v>
       </c>
       <c r="T6">
         <f t="shared" ref="T6" si="1">SUM(C6:R6)</f>
-        <v>346542.0346590401</v>
+        <v>70.034659040128702</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -735,16 +735,16 @@
         <v>-3331904.3900000099</v>
       </c>
       <c r="D7" s="3">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="E7" s="3">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="F7" s="3">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="G7" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -759,11 +759,11 @@
       <c r="R7" s="3"/>
       <c r="S7">
         <f>AVERAGE(C7:R7)</f>
-        <v>-666342.47800000198</v>
+        <v>-666379.27800000203</v>
       </c>
       <c r="T7">
         <f>SUM(C7:R7)</f>
-        <v>-3331712.3900000099</v>
+        <v>-3331896.3900000099</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -777,16 +777,16 @@
         <v>36434.064100000003</v>
       </c>
       <c r="D8" s="3">
-        <v>12123</v>
+        <v>2</v>
       </c>
       <c r="E8" s="3">
-        <v>3477</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="G8" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -801,11 +801,11 @@
       <c r="R8" s="3"/>
       <c r="S8">
         <f t="shared" ref="S8:S10" si="2">AVERAGE(C8:R8)</f>
-        <v>10423.01282</v>
+        <v>7288.4128200000005</v>
       </c>
       <c r="T8">
         <f t="shared" ref="T8:T10" si="3">SUM(C8:R8)</f>
-        <v>52115.064100000003</v>
+        <v>36442.064100000003</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -819,16 +819,16 @@
         <v>40738652.866300002</v>
       </c>
       <c r="D9" s="3">
-        <v>12345561</v>
+        <v>2</v>
       </c>
       <c r="E9" s="3">
-        <v>3452</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="G9" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -843,11 +843,11 @@
       <c r="R9" s="3"/>
       <c r="S9">
         <f t="shared" si="2"/>
-        <v>10617551.373260001</v>
+        <v>8147732.1732600005</v>
       </c>
       <c r="T9">
         <f t="shared" si="3"/>
-        <v>53087756.866300002</v>
+        <v>40738660.866300002</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -861,13 +861,13 @@
         <v>796860.91799999995</v>
       </c>
       <c r="D10" s="3">
-        <v>152438</v>
+        <v>2</v>
       </c>
       <c r="E10" s="3">
-        <v>4327</v>
+        <v>2</v>
       </c>
       <c r="F10" s="3">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
@@ -885,11 +885,11 @@
       <c r="R10" s="3"/>
       <c r="S10">
         <f t="shared" si="2"/>
-        <v>190745.3836</v>
+        <v>159373.7836</v>
       </c>
       <c r="T10">
         <f t="shared" si="3"/>
-        <v>953726.91799999995</v>
+        <v>796868.91799999995</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -903,16 +903,16 @@
         <v>5555.55</v>
       </c>
       <c r="D11" s="3">
-        <v>8657</v>
+        <v>2</v>
       </c>
       <c r="E11" s="3">
-        <v>436</v>
+        <v>2</v>
       </c>
       <c r="F11" s="3">
-        <v>1010</v>
+        <v>2</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -927,11 +927,11 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3">
         <f>AVERAGE(C11:R11)</f>
-        <v>3131.91</v>
+        <v>1112.71</v>
       </c>
       <c r="T11">
         <f>SUM(C11:R11)</f>
-        <v>15659.55</v>
+        <v>5563.55</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -945,16 +945,16 @@
         <v>212581.82553</v>
       </c>
       <c r="D12" s="3">
-        <v>412567</v>
+        <v>2</v>
       </c>
       <c r="E12" s="3">
-        <v>8888</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3">
-        <v>1111</v>
+        <v>2</v>
       </c>
       <c r="G12" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -969,11 +969,11 @@
       <c r="R12" s="3"/>
       <c r="S12">
         <f>AVERAGE(C12:R12)</f>
-        <v>127030.56510600001</v>
+        <v>42517.965106000003</v>
       </c>
       <c r="T12">
         <f>SUM(C12:R12)</f>
-        <v>635152.82553000003</v>
+        <v>212589.82553</v>
       </c>
     </row>
     <row r="25" spans="3:18" x14ac:dyDescent="0.25">
